--- a/FORMATO DE INVENTARIO.xlsx
+++ b/FORMATO DE INVENTARIO.xlsx
@@ -1202,10 +1202,10 @@
         </is>
       </c>
       <c r="E8" t="n">
+        <v>500</v>
+      </c>
+      <c r="F8" t="n">
         <v>499</v>
-      </c>
-      <c r="F8" t="n">
-        <v>500</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -1246,10 +1246,10 @@
         </is>
       </c>
       <c r="E9" t="n">
+        <v>500</v>
+      </c>
+      <c r="F9" t="n">
         <v>501</v>
-      </c>
-      <c r="F9" t="n">
-        <v>500</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -1312,12 +1312,12 @@
       </c>
       <c r="E1" s="2" t="inlineStr">
         <is>
-          <t>sistema_y</t>
+          <t>sistema</t>
         </is>
       </c>
       <c r="F1" s="2" t="inlineStr">
         <is>
-          <t>sistema_x</t>
+          <t>fisico</t>
         </is>
       </c>
       <c r="G1" s="2" t="inlineStr">
@@ -1342,352 +1342,352 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="0" t="inlineStr">
         <is>
           <t>philips</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="0" t="inlineStr">
         <is>
           <t>Cerradura</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>PZ</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t>PZ</t>
+        </is>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G2" s="0" t="inlineStr">
+        <is>
+          <t>GENERAL</t>
+        </is>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="I2" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="J2" s="0" t="inlineStr">
+        <is>
+          <t>1/50</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>philips</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>Zapato</t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t>PZ</t>
+        </is>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G3" s="0" t="inlineStr">
+        <is>
+          <t>GENERAL</t>
+        </is>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I3" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J3" s="0" t="inlineStr">
+        <is>
+          <t>1/50</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>LG</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>Horno</t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t>PZ</t>
+        </is>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G4" s="0" t="inlineStr">
+        <is>
+          <t>GENERAL</t>
+        </is>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="I4" s="0" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J4" s="0" t="inlineStr">
+        <is>
+          <t>1/50</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>LG</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>Mochila</t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>PZ</t>
+        </is>
+      </c>
+      <c r="E5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="0" t="inlineStr">
+        <is>
+          <t>GENERAL</t>
+        </is>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="I5" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J5" s="0" t="inlineStr">
+        <is>
+          <t>1/50</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>LG</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>Television</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="inlineStr">
+        <is>
+          <t>PZ</t>
+        </is>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="0" t="inlineStr">
+        <is>
+          <t>GENERAL</t>
+        </is>
+      </c>
+      <c r="H6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>GENERAL</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>150</v>
-      </c>
-      <c r="I2" t="inlineStr">
+      <c r="I6" s="0" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>1/50</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>philips</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>3</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Zapato</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>PZ</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
+      <c r="J6" s="0" t="inlineStr">
+        <is>
+          <t>1/50</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>HP</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>Cerveza</t>
+        </is>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>PZ</t>
+        </is>
+      </c>
+      <c r="E7" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F3" t="n">
-        <v>8</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>GENERAL</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-      <c r="I3" t="inlineStr">
+      <c r="F7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="0" t="inlineStr">
+        <is>
+          <t>GENERAL</t>
+        </is>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="I7" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="J7" s="0" t="inlineStr">
+        <is>
+          <t>1/50</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>HP</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>Sueter</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t>PZ</t>
+        </is>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="G8" s="0" t="inlineStr">
+        <is>
+          <t>GENERAL</t>
+        </is>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="I8" s="0" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J8" s="0" t="inlineStr">
+        <is>
+          <t>1/50</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>Macbook</t>
+        </is>
+      </c>
+      <c r="D9" s="0" t="inlineStr">
+        <is>
+          <t>PZ</t>
+        </is>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="G9" s="0" t="inlineStr">
+        <is>
+          <t>GENERAL</t>
+        </is>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" s="0" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>1/50</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>LG</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>5</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Horno</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>PZ</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>GENERAL</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>80</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>1/50</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>LG</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>6</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Mochila</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>PZ</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>GENERAL</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>15</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>1/50</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>LG</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>7</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Television</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>PZ</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>GENERAL</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>1/50</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>HP</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Cerveza</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>PZ</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>GENERAL</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>90</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>1/50</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>HP</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>10</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Sueter</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>PZ</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>499</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>GENERAL</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>75</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>1/50</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Apple</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>11</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Macbook</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>PZ</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="n">
-        <v>501</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>GENERAL</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="J9" s="0" t="inlineStr">
         <is>
           <t>1/50</t>
         </is>
@@ -1765,352 +1765,336 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="0" t="inlineStr">
         <is>
           <t>philips</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="0" t="inlineStr">
         <is>
           <t>Cerradura</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>PZ</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t>PZ</t>
+        </is>
+      </c>
+      <c r="E2" s="0" t="inlineStr"/>
+      <c r="F2" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" s="0" t="inlineStr">
+        <is>
+          <t>GENERAL</t>
+        </is>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="I2" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="J2" s="0" t="inlineStr">
+        <is>
+          <t>1/50</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>philips</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>Zapato</t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t>PZ</t>
+        </is>
+      </c>
+      <c r="E3" s="0" t="inlineStr"/>
+      <c r="F3" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G3" s="0" t="inlineStr">
+        <is>
+          <t>GENERAL</t>
+        </is>
+      </c>
+      <c r="H3" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>GENERAL</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>150</v>
-      </c>
-      <c r="I2" t="inlineStr">
+      <c r="I3" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J3" s="0" t="inlineStr">
+        <is>
+          <t>1/50</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>LG</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>Horno</t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t>PZ</t>
+        </is>
+      </c>
+      <c r="E4" s="0" t="inlineStr"/>
+      <c r="F4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G4" s="0" t="inlineStr">
+        <is>
+          <t>GENERAL</t>
+        </is>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="I4" s="0" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J4" s="0" t="inlineStr">
+        <is>
+          <t>1/50</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>LG</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>Mochila</t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>PZ</t>
+        </is>
+      </c>
+      <c r="E5" s="0" t="inlineStr"/>
+      <c r="F5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="0" t="inlineStr">
+        <is>
+          <t>GENERAL</t>
+        </is>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="I5" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J5" s="0" t="inlineStr">
+        <is>
+          <t>1/50</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>LG</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>Television</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="inlineStr">
+        <is>
+          <t>PZ</t>
+        </is>
+      </c>
+      <c r="E6" s="0" t="inlineStr"/>
+      <c r="F6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="0" t="inlineStr">
+        <is>
+          <t>GENERAL</t>
+        </is>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I6" s="0" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>1/50</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>philips</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>3</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Zapato</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>PZ</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>5</v>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>GENERAL</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-      <c r="I3" t="inlineStr">
+      <c r="J6" s="0" t="inlineStr">
+        <is>
+          <t>1/50</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>HP</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>Cerveza</t>
+        </is>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>PZ</t>
+        </is>
+      </c>
+      <c r="E7" s="0" t="inlineStr"/>
+      <c r="F7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="0" t="inlineStr">
+        <is>
+          <t>GENERAL</t>
+        </is>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="I7" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="J7" s="0" t="inlineStr">
+        <is>
+          <t>1/50</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>HP</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>Sueter</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t>PZ</t>
+        </is>
+      </c>
+      <c r="E8" s="0" t="inlineStr"/>
+      <c r="F8" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="G8" s="0" t="inlineStr">
+        <is>
+          <t>GENERAL</t>
+        </is>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="I8" s="0" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J8" s="0" t="inlineStr">
+        <is>
+          <t>1/50</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>Macbook</t>
+        </is>
+      </c>
+      <c r="D9" s="0" t="inlineStr">
+        <is>
+          <t>PZ</t>
+        </is>
+      </c>
+      <c r="E9" s="0" t="inlineStr"/>
+      <c r="F9" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="G9" s="0" t="inlineStr">
+        <is>
+          <t>GENERAL</t>
+        </is>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" s="0" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>1/50</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>LG</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>5</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Horno</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>PZ</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>5</v>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>GENERAL</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>80</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>1/50</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>LG</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>6</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Mochila</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>PZ</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>5</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>GENERAL</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>15</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>1/50</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>LG</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>7</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Television</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>PZ</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>5</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>GENERAL</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>1/50</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>HP</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Cerveza</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>PZ</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>5</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>GENERAL</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>90</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>1/50</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>HP</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>10</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Sueter</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>PZ</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>5</v>
-      </c>
-      <c r="F8" t="n">
-        <v>499</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>GENERAL</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>75</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>1/50</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Apple</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>11</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Macbook</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>PZ</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>5</v>
-      </c>
-      <c r="F9" t="n">
-        <v>501</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>GENERAL</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="J9" s="0" t="inlineStr">
         <is>
           <t>1/50</t>
         </is>
